--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_15.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>598253.4950697434</v>
+        <v>571816.9397597931</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443405</v>
+        <v>1225477.018443406</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5337994.008849934</v>
+        <v>5337994.008849933</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.1509994400877</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>139.2037313894189</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>153.2418220378557</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869523</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -856,13 +856,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,16 +893,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>181.0201173812374</v>
@@ -981,13 +981,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>146.2490690754472</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>65.49887373836052</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -1035,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1093,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>181.0201173812374</v>
+        <v>153.6816173514498</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,10 +1272,10 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>205.5178444382804</v>
@@ -1309,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1330,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1382,61 +1382,61 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I11" t="n">
+      <c r="X11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="J11" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
+      <c r="Y11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1452,13 +1452,13 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>52.16889198559645</v>
       </c>
       <c r="E12" t="n">
-        <v>7.106574134391062</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1494,28 +1494,28 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
       </c>
       <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
+        <v>0</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
-      <c r="X12" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1546,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,55 +1616,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G14" t="n">
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
-      </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,28 +1683,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>7.692106705274854</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1746,13 +1746,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>46.54968785507681</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>17.55829564281238</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1804,13 +1804,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>241.0142888776591</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1865,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>1.809496073036188</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1920,7 +1920,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -1971,25 +1971,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>230.153951547179</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2053,10 +2053,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2087,7 +2087,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,25 +2163,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>26.98580820205339</v>
       </c>
       <c r="E21" t="n">
-        <v>111.2951716674721</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2315,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2324,19 +2324,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>212.2853856434421</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2378,7 +2378,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,13 +2406,13 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2442,28 +2442,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>110.1497834296626</v>
       </c>
       <c r="U24" t="n">
-        <v>68.67434453202564</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2473,7 +2473,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2515,10 +2515,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2558,19 +2558,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2597,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2618,10 +2618,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2631,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,19 +2679,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>136.9303145005007</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>77.85846059564972</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>3.265316057196634</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>40.47627913313517</v>
-      </c>
       <c r="E29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>241.0142888776591</v>
@@ -2807,13 +2807,13 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -2834,13 +2834,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -2868,25 +2868,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,10 +3038,10 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>241.0142888776591</v>
@@ -3074,10 +3074,10 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3123,7 +3123,7 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>63.88882306452232</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,16 +3153,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>189.6723709928539</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3202,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3241,7 +3241,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3354,19 +3354,19 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>21.743791059329</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,13 +3390,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3405,7 +3405,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3487,7 +3487,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3509,10 +3509,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>202.2946864288972</v>
+        <v>9.234466016111838</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3524,7 +3524,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,16 +3545,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>241.0142888776591</v>
@@ -3582,16 +3582,16 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>34.07808622174224</v>
+        <v>64.67263725582607</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -3667,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>205.5178444382804</v>
@@ -3782,13 +3782,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>31.15099944008764</v>
+        <v>21.16030022554286</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3819,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3837,10 +3837,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>90.87689320356448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3882,7 +3882,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>205.5178444382804</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,20 +3974,20 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="F44" t="n">
-        <v>0</v>
-      </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,16 +4019,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>9.211010870930394</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>62.16355304517904</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4107,13 +4107,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>119.3034809802377</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4304,13 +4304,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D2" t="n">
-        <v>16.44142755506243</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4331,13 +4331,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>85.87524403801982</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>469.413761616576</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
         <v>672.8764276104736</v>
@@ -4349,31 +4349,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5008658160403</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="V2" t="n">
-        <v>255.5008658160403</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="W2" t="n">
-        <v>255.5008658160403</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="X2" t="n">
-        <v>47.90708355515102</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y2" t="n">
-        <v>16.44142755506243</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="3">
@@ -4383,13 +4383,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>499.0663215028962</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>324.6132922217692</v>
       </c>
       <c r="D3" t="n">
-        <v>157.0512572413442</v>
+        <v>175.6788825605179</v>
       </c>
       <c r="E3" t="n">
         <v>16.44142755506243</v>
@@ -4410,13 +4410,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M3" t="n">
-        <v>366.5706756325438</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4434,25 +4434,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>667.2816585229643</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>667.2816585229643</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>110.7436296931158</v>
       </c>
       <c r="J4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4504,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4541,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>639.2227743377304</v>
+      </c>
+      <c r="C5" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="D5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="D5" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4568,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N5" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4607,10 +4607,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y5" t="n">
-        <v>431.628992076841</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>653.8560407330535</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="C6" t="n">
-        <v>653.8560407330535</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="D6" t="n">
-        <v>653.8560407330535</v>
+        <v>446.2622584721643</v>
       </c>
       <c r="E6" t="n">
-        <v>506.1297083336119</v>
+        <v>287.0248034667088</v>
       </c>
       <c r="F6" t="n">
-        <v>359.5951503604969</v>
+        <v>287.0248034667088</v>
       </c>
       <c r="G6" t="n">
         <v>220.8643249431123</v>
@@ -4650,13 +4650,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N6" t="n">
-        <v>548.724319600695</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
         <v>639.4279001397708</v>
@@ -4683,13 +4683,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y6" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I7" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J7" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4741,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4811,10 +4811,10 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N8" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4841,13 +4841,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>614.4775954922324</v>
       </c>
     </row>
     <row r="9">
@@ -4887,46 +4887,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
+        <v>141.7989876128999</v>
+      </c>
+      <c r="M9" t="n">
         <v>345.2616536067974</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>548.724319600695</v>
       </c>
-      <c r="N9" t="n">
-        <v>570.0333416264414</v>
-      </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T9" t="n">
-        <v>639.2227743377304</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="U9" t="n">
-        <v>639.2227743377304</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="V9" t="n">
-        <v>639.2227743377304</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="W9" t="n">
-        <v>431.628992076841</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4978,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J11" t="n">
         <v>16.44142755506243</v>
@@ -5045,7 +5045,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L11" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
         <v>379.753706324525</v>
@@ -5075,16 +5075,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
         <v>614.4775954922324</v>
       </c>
       <c r="X11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y11" t="n">
-        <v>614.4775954922324</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="12">
@@ -5094,16 +5094,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="C12" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="D12" t="n">
-        <v>513.308066045118</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="F12" t="n">
         <v>359.5951503604969</v>
@@ -5121,19 +5121,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>549.2141532458947</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5142,28 +5142,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="X12" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="Y12" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5215,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5285,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>191.6485894889752</v>
       </c>
       <c r="C15" t="n">
-        <v>814.3015730003187</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5364,13 +5364,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5394,13 +5394,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>775.0514910308218</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>567.4577087699325</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>359.8639265090432</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="H16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="I16" t="n">
-        <v>16.44142755506243</v>
+        <v>133.2380658808762</v>
       </c>
       <c r="J16" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5452,34 +5452,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5489,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5534,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="18">
@@ -5595,13 +5595,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5619,25 +5619,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>627.7355178317791</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>395.2567788952347</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>187.4964801302808</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5701,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5726,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
         <v>506.1786963984129</v>
@@ -5786,13 +5786,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
         <v>720.6083788665362</v>
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.8418184905681</v>
+        <v>380.2300195200815</v>
       </c>
       <c r="C21" t="n">
-        <v>621.3887892094411</v>
+        <v>205.7769902389545</v>
       </c>
       <c r="D21" t="n">
-        <v>621.3887892094411</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
@@ -5838,16 +5838,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M21" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N21" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5871,10 +5871,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>548.4453565401495</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5935,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5972,16 +5972,16 @@
         <v>477.1596022224361</v>
       </c>
       <c r="E23" t="n">
-        <v>477.1596022224361</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6026,13 +6026,13 @@
         <v>720.6083788665362</v>
       </c>
       <c r="W23" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y23" t="n">
-        <v>477.1596022224361</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="24">
@@ -6042,22 +6042,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>417.9156620931329</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6069,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M24" t="n">
-        <v>374.6018090363993</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6090,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>487.2836868729568</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="U24" t="n">
-        <v>417.9156620931329</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="V24" t="n">
-        <v>417.9156620931329</v>
+        <v>852.7947480059265</v>
       </c>
       <c r="W24" t="n">
-        <v>417.9156620931329</v>
+        <v>609.3459713618265</v>
       </c>
       <c r="X24" t="n">
-        <v>417.9156620931329</v>
+        <v>401.4944711562937</v>
       </c>
       <c r="Y24" t="n">
-        <v>417.9156620931329</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K25" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L25" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M25" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N25" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O25" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0645035650224</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R25" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S25" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T25" t="n">
-        <v>64.03213664411894</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U25" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V25" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W25" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X25" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y25" t="n">
-        <v>64.03213664411894</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C26" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6245,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>223.6192102101089</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="27">
@@ -6279,37 +6279,37 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>382.9414955037181</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="C27" t="n">
-        <v>382.9414955037181</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="D27" t="n">
-        <v>382.9414955037181</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E27" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F27" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G27" t="n">
-        <v>223.7040404982626</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H27" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
         <v>234.810827406191</v>
@@ -6327,28 +6327,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T27" t="n">
-        <v>551.1568325237861</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U27" t="n">
-        <v>551.1568325237861</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V27" t="n">
-        <v>551.1568325237861</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="W27" t="n">
-        <v>551.1568325237861</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="X27" t="n">
-        <v>551.1568325237861</v>
+        <v>281.5846883638847</v>
       </c>
       <c r="Y27" t="n">
-        <v>551.1568325237861</v>
+        <v>281.5846883638847</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K28" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L28" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M28" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N28" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>559.1338160830064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="C29" t="n">
-        <v>559.1338160830064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D29" t="n">
-        <v>518.2486856454962</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>274.7999090013961</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6482,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U29" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="V29" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="W29" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="X29" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="Y29" t="n">
-        <v>802.5825927271064</v>
+        <v>752.9257720901863</v>
       </c>
     </row>
     <row r="30">
@@ -6516,22 +6516,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>900.5405560409666</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C30" t="n">
-        <v>726.0875267598396</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>577.1531170985884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>417.9156620931329</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>271.3811041200179</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>132.6502787026334</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6549,13 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>473.4149733950735</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>473.4149733950735</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6570,22 +6570,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>964.0571555106362</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U30" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V30" t="n">
-        <v>964.0571555106362</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W30" t="n">
-        <v>964.0571555106362</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X30" t="n">
-        <v>964.0571555106362</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y30" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="31">
@@ -6643,28 +6643,28 @@
         <v>64.03213664411894</v>
       </c>
       <c r="R31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>64.03213664411894</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6674,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E32" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>262.7299197543128</v>
@@ -6722,16 +6722,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U32" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V32" t="n">
         <v>749.627473042513</v>
@@ -6743,7 +6743,7 @@
         <v>749.627473042513</v>
       </c>
       <c r="Y32" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6753,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="C33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6801,28 +6801,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>497.8820279860555</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U33" t="n">
-        <v>497.8820279860555</v>
+        <v>562.4161926976942</v>
       </c>
       <c r="V33" t="n">
-        <v>262.7299197543128</v>
+        <v>327.2640844659515</v>
       </c>
       <c r="W33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="X33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
       <c r="Y33" t="n">
-        <v>19.28114311021272</v>
+        <v>83.81530782185143</v>
       </c>
     </row>
     <row r="34">
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6889,19 +6889,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6914,13 +6914,13 @@
         <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
         <v>19.28114311021272</v>
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>180.7295264928365</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>41.99870107545198</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>41.99870107545198</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7026,40 +7026,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>562.4161926976942</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V36" t="n">
-        <v>327.2640844659515</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y36" t="n">
-        <v>327.2640844659515</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7135,10 +7135,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7148,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="C38" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="D38" t="n">
-        <v>467.067986854209</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E38" t="n">
-        <v>223.6192102101089</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7193,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V38" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W38" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X38" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y38" t="n">
-        <v>710.516763498309</v>
+        <v>284.1276524520142</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C39" t="n">
-        <v>360.2295980564601</v>
+        <v>84.60703932821886</v>
       </c>
       <c r="D39" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E39" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7275,28 +7275,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T39" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U39" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V39" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W39" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X39" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y39" t="n">
-        <v>360.2295980564601</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="C41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="D41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
       <c r="E41" t="n">
         <v>431.628992076841</v>
@@ -7412,28 +7412,28 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
-        <v>672.8764276104736</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O41" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P41" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q41" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S41" t="n">
         <v>639.2227743377304</v>
@@ -7454,7 +7454,7 @@
         <v>639.2227743377304</v>
       </c>
       <c r="Y41" t="n">
-        <v>639.2227743377304</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="42">
@@ -7464,28 +7464,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>107.4951893506917</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="C42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
@@ -7494,10 +7494,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>219.90409354896</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N42" t="n">
         <v>366.5706756325438</v>
@@ -7521,19 +7521,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>730.2765361333595</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>522.6827538724702</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>315.088971611581</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X42" t="n">
-        <v>107.4951893506917</v>
+        <v>190.8944568361894</v>
       </c>
       <c r="Y42" t="n">
-        <v>107.4951893506917</v>
+        <v>190.8944568361894</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7600,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,28 +7622,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>443.6989813239244</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D44" t="n">
-        <v>236.1051990630351</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E44" t="n">
-        <v>28.51141680214578</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I44" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J44" t="n">
         <v>16.44142755506243</v>
@@ -7652,46 +7652,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L44" t="n">
-        <v>196.517279139721</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M44" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S44" t="n">
-        <v>651.2927635848137</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T44" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U44" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>651.2927635848137</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>443.6989813239244</v>
+        <v>431.628992076841</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>193.3561635226719</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>193.3561635226719</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>79.98702793025122</v>
       </c>
       <c r="I45" t="n">
         <v>17.19556020784815</v>
@@ -7728,22 +7728,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M45" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>752.1869855945927</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7755,22 +7755,22 @@
         <v>547.4845037566762</v>
       </c>
       <c r="T45" t="n">
-        <v>345.2979091154422</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="U45" t="n">
-        <v>137.7041268545529</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="V45" t="n">
-        <v>17.19556020784815</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="W45" t="n">
-        <v>17.19556020784815</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="X45" t="n">
-        <v>17.19556020784815</v>
+        <v>339.8907214957869</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>339.8907214957869</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L46" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M46" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N46" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y46" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>290.2250192095839</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7988,7 +7988,7 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M3" t="n">
-        <v>163.6582985944894</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8216,10 +8216,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,10 +8228,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8298,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>344.0722242181546</v>
+        <v>230.174158102173</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8307,7 +8307,7 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8459,13 +8459,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8535,22 +8535,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>152.8659767558044</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8693,10 +8693,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>131.836493543131</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8933,16 +8933,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9012,7 +9012,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9021,7 +9021,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,10 +9164,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9486,7 +9486,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9498,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9717,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,13 +9954,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -10197,16 +10197,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10674,7 +10674,7 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>231.1529892133072</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O36" t="n">
         <v>142.5962444444444</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11060,22 +11060,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>360.3696370111358</v>
       </c>
       <c r="P41" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11142,13 +11142,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N42" t="n">
-        <v>279.489774794024</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11300,7 +11300,7 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M44" t="n">
         <v>435.8640776655532</v>
@@ -11312,7 +11312,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>286.7024424905649</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>204.5647025239554</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,7 +22553,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>360.7700698467189</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22589,19 +22589,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22613,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>355.0869392159659</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="3">
@@ -22632,7 +22632,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>18.44134906598205</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -22674,7 +22674,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>18.44134906598211</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22723,10 +22723,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.6226874585631</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>22.26949182588285</v>
@@ -22744,13 +22744,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,16 +22781,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>159.7550473327271</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22847,7 +22847,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>205.2178212748162</v>
@@ -22869,13 +22869,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>11.39601137995376</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>71.84464342485012</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -22923,7 +22923,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,13 +22960,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22981,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23018,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,16 +23030,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23081,13 +23081,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,7 +23097,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -23145,13 +23145,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>19.14461131358425</v>
+        <v>46.48311134337177</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23160,10 +23160,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>0.1648513390239543</v>
@@ -23197,10 +23197,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23218,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>201.7137242822431</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23270,16 +23270,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>246.2319094885102</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23315,16 +23315,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V11" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="12">
@@ -23340,13 +23340,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>95.27617357904231</v>
       </c>
       <c r="E12" t="n">
-        <v>150.5385063210099</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23382,19 +23382,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -23403,7 +23403,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23434,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23504,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23537,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23571,28 +23571,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>165.0163922830409</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23634,13 +23634,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>205.1452953058428</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23671,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>137.8921792844459</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23692,13 +23692,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23741,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>165.8617568640524</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23753,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23808,7 +23808,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -23859,25 +23859,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>21.54103161374061</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23941,10 +23941,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,7 +23966,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200385</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23975,7 +23975,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
@@ -24026,7 +24026,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24035,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24051,25 +24051,25 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>120.4592573625854</v>
       </c>
       <c r="E21" t="n">
-        <v>46.34990878792881</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24111,10 +24111,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24175,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24203,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24212,19 +24212,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>194.5906600982693</v>
+        <v>405.0665496686752</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24266,7 +24266,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24285,7 +24285,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24294,13 +24294,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I24" t="n">
         <v>89.39663285141508</v>
@@ -24330,28 +24330,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>90.01494526515901</v>
       </c>
       <c r="U24" t="n">
-        <v>157.2670375489492</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>135.5284965833702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24403,10 +24403,10 @@
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R25" t="n">
         <v>177.2933913771695</v>
@@ -24418,7 +24418,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24446,19 +24446,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>152.3883551917857</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24485,7 +24485,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24506,10 +24506,10 @@
         <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24519,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24540,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,19 +24567,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>63.23441419432095</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>154.9421265537756</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>46.6450125965693</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24655,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,16 +24677,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>362.0075757138109</v>
       </c>
       <c r="D29" t="n">
-        <v>314.2067624875478</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>165.8617568640524</v>
@@ -24695,13 +24695,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -24722,13 +24722,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -24756,25 +24756,25 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
         <v>89.39663285141508</v>
@@ -24810,22 +24810,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>143.2478283578182</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>135.5284965833702</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24914,7 +24914,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,10 +24926,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>98.46051323810809</v>
@@ -24962,10 +24962,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>146.6038018839531</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
@@ -24974,7 +24974,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>324.4869424129383</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -24983,7 +24983,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="33">
@@ -25011,7 +25011,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>112.2354442364965</v>
+        <v>48.34662117197414</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,16 +25041,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>10.49235770196768</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25129,7 +25129,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U34" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25154,7 +25154,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25163,7 +25163,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>194.5906600982693</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>415.302737515135</v>
@@ -25242,19 +25242,19 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>67.65284179208608</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,13 +25278,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,7 +25293,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -25330,7 +25330,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25375,7 +25375,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25397,10 +25397,10 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>204.5813593128142</v>
+        <v>397.6415797255996</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25412,7 +25412,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,16 +25433,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>10.33136403017744</v>
@@ -25470,16 +25470,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>113.3669793428965</v>
+        <v>82.77242830881268</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>137.3435171632106</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25515,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>13.24699506120118</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25609,7 +25609,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25634,7 +25634,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>201.358201303431</v>
@@ -25670,13 +25670,13 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>177.8690701461577</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25694,7 +25694,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25707,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25725,10 +25725,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,7 +25761,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>135.0644888774103</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25770,7 +25770,7 @@
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>0.2551407651970692</v>
+        <v>197.4613668105558</v>
       </c>
       <c r="Y42" t="n">
         <v>205.6826957773044</v>
@@ -25840,13 +25840,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,19 +25862,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
@@ -25886,7 +25886,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,16 +25907,16 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>199.809058715315</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U44" t="n">
         <v>251.3456529078365</v>
@@ -25953,16 +25953,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>27.23307980623604</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25995,13 +25995,13 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>113.4971061691875</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449711.3075636478</v>
+        <v>449711.3075636477</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449711.3075636478</v>
+        <v>449711.3075636479</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449711.307563648</v>
+        <v>449711.3075636479</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449711.3075636478</v>
+        <v>449711.3075636477</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449711.3075636478</v>
+        <v>449711.307563648</v>
       </c>
     </row>
   </sheetData>
@@ -26323,7 +26323,7 @@
         <v>118318.2313761987</v>
       </c>
       <c r="F2" t="n">
-        <v>118318.2313761986</v>
+        <v>118318.2313761987</v>
       </c>
       <c r="G2" t="n">
         <v>124620.5043984993</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="C4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="D4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="E4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="F4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="G4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>13660.85119937745</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>12944.46415789077</v>
+        <v>16031.60407651876</v>
       </c>
       <c r="P4" t="n">
-        <v>12944.46415789076</v>
+        <v>16031.60407651876</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9623.074305229376</v>
+        <v>-12710.21422385734</v>
       </c>
       <c r="C6" t="n">
-        <v>59250.68227646045</v>
+        <v>56163.54235783247</v>
       </c>
       <c r="D6" t="n">
-        <v>59250.68227646047</v>
+        <v>56163.5423578325</v>
       </c>
       <c r="E6" t="n">
-        <v>92878.28227646045</v>
+        <v>89791.14235783249</v>
       </c>
       <c r="F6" t="n">
-        <v>92878.28227646044</v>
+        <v>89791.14235783246</v>
       </c>
       <c r="G6" t="n">
-        <v>86576.94146119308</v>
+        <v>83323.10301958967</v>
       </c>
       <c r="H6" t="n">
-        <v>96305.98443536018</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="I6" t="n">
-        <v>96305.98443536017</v>
+        <v>93052.1459937568</v>
       </c>
       <c r="J6" t="n">
-        <v>42533.47354515074</v>
+        <v>39279.63510354736</v>
       </c>
       <c r="K6" t="n">
-        <v>96305.98443536015</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="L6" t="n">
-        <v>96305.98443536018</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="M6" t="n">
-        <v>96305.98443536017</v>
+        <v>93052.14599375679</v>
       </c>
       <c r="N6" t="n">
-        <v>96305.98443536017</v>
+        <v>93052.14599375676</v>
       </c>
       <c r="O6" t="n">
-        <v>92878.28227646051</v>
+        <v>89791.14235783248</v>
       </c>
       <c r="P6" t="n">
-        <v>92878.28227646046</v>
+        <v>89791.14235783248</v>
       </c>
     </row>
   </sheetData>
@@ -34699,7 +34699,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>70.13516816460341</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34708,7 +34708,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M3" t="n">
-        <v>21.52426467247106</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34936,10 +34936,10 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,10 +34948,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,7 +35018,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35027,7 +35027,7 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35179,13 +35179,13 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35255,22 +35255,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35413,10 +35413,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>0.4947814597977008</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35653,16 +35653,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O14" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35741,7 +35741,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36206,7 +36206,7 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36218,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L24" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,13 +36674,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36917,16 +36917,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37315,7 +37315,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O35" t="n">
         <v>150.7019698410586</v>
@@ -37394,7 +37394,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>99.8112771299739</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37403,7 +37403,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37780,22 +37780,22 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>130.2714255894491</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N42" t="n">
-        <v>148.1480627106907</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -38020,7 +38020,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38032,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
+        <v>148.1480627106907</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M45" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>70.5902951096252</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_15.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>571816.9397597931</v>
+        <v>572601.0856978218</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443469</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5337994.008849933</v>
+        <v>5337994.008849935</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -701,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -725,7 +727,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>31.1509994400877</v>
       </c>
     </row>
     <row r="3">
@@ -741,7 +743,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>129.0037164986567</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>153.2418220378557</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>39.82778746869523</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -893,76 +895,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="D5" t="n">
+      <c r="X5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +983,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>65.49887373836052</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1022,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>52.92813148301364</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,16 +1144,16 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>47.29627918133474</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>153.6816173514498</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1367,29 +1369,29 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="G11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="H11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="I11" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="C11" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
@@ -1430,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,16 +1451,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>97.08873955668993</v>
       </c>
       <c r="D12" t="n">
-        <v>52.16889198559645</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.3435171632106</v>
@@ -1467,7 +1469,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0.7465913262578567</v>
@@ -1500,7 +1502,7 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -1515,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>22.26949182588285</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1616,16 +1618,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1649,22 +1651,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1689,13 +1691,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1704,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
         <v>0.7465913262578567</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>46.54968785507681</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.5178444382804</v>
+        <v>75.67446592219994</v>
       </c>
     </row>
     <row r="16">
@@ -1783,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1804,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.03399177268427</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1853,7 +1855,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>220.8837963815379</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G17" t="n">
         <v>241.0142888776591</v>
@@ -1865,7 +1867,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>1.809496073036188</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1920,31 +1922,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1980,16 +1982,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>230.153951547179</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2053,10 +2055,10 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2078,16 +2080,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F20" t="n">
         <v>241.0142888776591</v>
@@ -2147,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2163,7 +2165,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>26.98580820205339</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
@@ -2178,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>60.9853328755199</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2208,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2226,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2327,7 +2329,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>1.809496073036188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2336,7 +2338,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U23" t="n">
+        <v>0</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>66.07094036435966</v>
       </c>
       <c r="T24" t="n">
-        <v>110.1497834296626</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2459,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,70 +2560,70 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>212.285385643442</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,19 +2633,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>127.1573581340379</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2657,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2682,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>77.85846059564972</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2710,64 +2712,64 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
+      <c r="R28" t="n">
+        <v>0</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0</v>
+      </c>
+      <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>0</v>
-      </c>
-      <c r="R28" t="n">
-        <v>0</v>
-      </c>
-      <c r="S28" t="n">
-        <v>0</v>
-      </c>
-      <c r="T28" t="n">
-        <v>0</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2792,73 +2794,73 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U29" t="n">
+        <v>0</v>
+      </c>
+      <c r="V29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>209.0200695862453</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
     </row>
     <row r="30">
@@ -2892,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>56.91690033700343</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>134.667568689459</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3038,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3071,31 +3073,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>62.4162677022923</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3111,19 +3113,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>63.88882306452232</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>13.16315991169311</v>
       </c>
     </row>
     <row r="34">
@@ -3202,10 +3204,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3266,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3308,7 +3310,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -3320,7 +3322,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>241.0142888776591</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
     </row>
     <row r="36">
@@ -3390,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3405,10 +3407,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>4.580549094716531</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3442,40 +3444,40 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0</v>
+      </c>
+      <c r="T37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
-      </c>
-      <c r="R37" t="n">
-        <v>0</v>
-      </c>
-      <c r="S37" t="n">
-        <v>0</v>
-      </c>
-      <c r="T37" t="n">
-        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3506,13 +3508,13 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="F38" t="n">
-        <v>9.234466016111838</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3524,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3560,7 +3562,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3582,10 +3584,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>29.79900896488263</v>
       </c>
       <c r="D39" t="n">
-        <v>64.67263725582607</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3627,25 +3629,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3667,67 +3669,67 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y40" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="F41" t="n">
-        <v>205.5178444382804</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,10 +3787,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>21.16030022554286</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3806,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3819,7 +3821,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>205.5178444382804</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="W42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X42" t="n">
-        <v>8.311618392921693</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,23 +3976,23 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="G44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G44" t="n">
-        <v>0</v>
-      </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
@@ -4019,19 +4021,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4065,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>62.16355304517904</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -4101,10 +4103,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
@@ -4113,13 +4115,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>180.2735260549796</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4144,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4195,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>37.81546818692397</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
         <v>16.44142755506243</v>
@@ -4334,46 +4336,46 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N2" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>660.5968149695918</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S2" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T2" t="n">
-        <v>660.5968149695918</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U2" t="n">
-        <v>660.5968149695918</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="V2" t="n">
-        <v>660.5968149695918</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="W2" t="n">
-        <v>660.5968149695918</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="X2" t="n">
-        <v>453.0030327087026</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="Y2" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>499.0663215028962</v>
+        <v>480.4386961837225</v>
       </c>
       <c r="C3" t="n">
-        <v>324.6132922217692</v>
+        <v>305.9856669025954</v>
       </c>
       <c r="D3" t="n">
         <v>175.6788825605179</v>
@@ -4413,10 +4415,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>163.1080096386462</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
         <v>366.5706756325438</v>
@@ -4434,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>667.2816585229643</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T3" t="n">
-        <v>667.2816585229643</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U3" t="n">
-        <v>667.2816585229643</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V3" t="n">
-        <v>667.2816585229643</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="W3" t="n">
-        <v>667.2816585229643</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="X3" t="n">
-        <v>667.2816585229643</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="Y3" t="n">
-        <v>667.2816585229643</v>
+        <v>648.6540332037905</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I4" t="n">
-        <v>110.7436296931158</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="5">
@@ -4541,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>639.2227743377304</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C5" t="n">
-        <v>431.628992076841</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E5" t="n">
         <v>16.44142755506243</v>
@@ -4568,19 +4570,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K5" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4604,13 +4606,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X5" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="Y5" t="n">
-        <v>639.2227743377304</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>446.2622584721643</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>446.2622584721643</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>446.2622584721643</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>287.0248034667088</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>287.0248034667088</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8643249431123</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
         <v>17.19556020784815</v>
@@ -4650,46 +4652,46 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>768.6086186793705</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>595.1912741300393</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>393.0046794888054</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="W6" t="n">
-        <v>614.4775954922324</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="X6" t="n">
-        <v>614.4775954922324</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y6" t="n">
-        <v>614.4775954922324</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J7" t="n">
         <v>38.93586374282289</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4780,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I8" t="n">
         <v>16.44142755506243</v>
@@ -4805,13 +4807,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
         <v>583.2163723184226</v>
@@ -4844,10 +4846,10 @@
         <v>614.4775954922324</v>
       </c>
       <c r="X8" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y8" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="9">
@@ -4857,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>238.668476211275</v>
       </c>
       <c r="C9" t="n">
-        <v>16.44142755506243</v>
+        <v>64.21544693014803</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4884,49 +4886,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M9" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N9" t="n">
-        <v>548.724319600695</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="O9" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P9" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U9" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V9" t="n">
-        <v>392.2505468360198</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W9" t="n">
-        <v>392.2505468360198</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="X9" t="n">
-        <v>392.2505468360198</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y9" t="n">
-        <v>184.6567645751305</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J10" t="n">
         <v>38.93586374282289</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E11" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F11" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G11" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H11" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5048,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5078,13 +5080,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W11" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X11" t="n">
-        <v>406.8838132313431</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y11" t="n">
-        <v>199.2900309704538</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C12" t="n">
-        <v>412.2910008509983</v>
+        <v>724.0019438574752</v>
       </c>
       <c r="D12" t="n">
-        <v>359.5951503604969</v>
+        <v>575.067534196224</v>
       </c>
       <c r="E12" t="n">
-        <v>359.5951503604969</v>
+        <v>415.8300791907684</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>269.2955212176533</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>130.5646958002688</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I12" t="n">
         <v>17.19556020784815</v>
@@ -5124,16 +5126,16 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2616536067974</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M12" t="n">
-        <v>548.724319600695</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N12" t="n">
-        <v>549.2141532458947</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O12" t="n">
-        <v>752.6768192397923</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P12" t="n">
         <v>752.6768192397923</v>
@@ -5148,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X12" t="n">
-        <v>619.8847831118876</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y12" t="n">
-        <v>412.2910008509983</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J13" t="n">
         <v>38.93586374282289</v>
@@ -5215,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q13" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="G14" t="n">
-        <v>16.44142755506243</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="H14" t="n">
-        <v>16.44142755506243</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5288,7 +5290,7 @@
         <v>502.994951044541</v>
       </c>
       <c r="N14" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O14" t="n">
         <v>822.0713777531216</v>
@@ -5297,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>811.9797623848946</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S14" t="n">
-        <v>453.0030327087026</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T14" t="n">
-        <v>245.4092504478133</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U14" t="n">
-        <v>37.81546818692397</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y14" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>191.6485894889752</v>
+        <v>577.417186266185</v>
       </c>
       <c r="C15" t="n">
-        <v>17.19556020784815</v>
+        <v>402.964156985058</v>
       </c>
       <c r="D15" t="n">
-        <v>17.19556020784815</v>
+        <v>254.0297473238067</v>
       </c>
       <c r="E15" t="n">
-        <v>17.19556020784815</v>
+        <v>254.0297473238067</v>
       </c>
       <c r="F15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="G15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="H15" t="n">
-        <v>17.19556020784815</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
         <v>17.19556020784815</v>
@@ -5358,19 +5360,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
-        <v>219.90409354896</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3667595428576</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>626.8294255367553</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
         <v>752.6768192397923</v>
@@ -5394,13 +5396,13 @@
         <v>822.0713777531216</v>
       </c>
       <c r="W15" t="n">
-        <v>775.0514910308218</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>567.4577087699325</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Y15" t="n">
-        <v>359.8639265090432</v>
+        <v>745.632523286253</v>
       </c>
     </row>
     <row r="16">
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="I16" t="n">
-        <v>133.2380658808762</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="J16" t="n">
         <v>38.93586374282289</v>
@@ -5452,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q16" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="S16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="T16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>38.93586374282289</v>
       </c>
     </row>
     <row r="17">
@@ -5489,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F17" t="n">
-        <v>730.8505943024719</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="G17" t="n">
-        <v>487.4018176583718</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="H17" t="n">
-        <v>243.9530410142718</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="I17" t="n">
-        <v>31.35113235729608</v>
+        <v>21.10891692136039</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
@@ -5598,10 +5600,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>473.4149733950735</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N18" t="n">
         <v>473.4149733950735</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>627.7355178317791</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>395.2567788952347</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>187.4964801302808</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5701,7 +5703,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5726,13 +5728,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E20" t="n">
         <v>506.1786963984129</v>
@@ -5795,7 +5797,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y20" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>380.2300195200815</v>
+        <v>414.5729737357042</v>
       </c>
       <c r="C21" t="n">
-        <v>205.7769902389545</v>
+        <v>240.1199444545772</v>
       </c>
       <c r="D21" t="n">
-        <v>178.5185981156682</v>
+        <v>240.1199444545772</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>80.88248944912172</v>
       </c>
       <c r="F21" t="n">
-        <v>19.28114311021272</v>
+        <v>80.88248944912172</v>
       </c>
       <c r="G21" t="n">
-        <v>19.28114311021272</v>
+        <v>80.88248944912172</v>
       </c>
       <c r="H21" t="n">
-        <v>19.28114311021272</v>
+        <v>80.88248944912172</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>257.8852890990952</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N21" t="n">
-        <v>496.4894350879777</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O21" t="n">
-        <v>735.0935810768601</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P21" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X21" t="n">
-        <v>756.2056553051034</v>
+        <v>582.7883107557723</v>
       </c>
       <c r="Y21" t="n">
-        <v>548.4453565401495</v>
+        <v>582.7883107557723</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H23" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I23" t="n">
         <v>19.28114311021272</v>
@@ -6017,22 +6019,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6044,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>193.7341723913397</v>
+        <v>627.9339654430905</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>453.4809361619635</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6069,13 +6071,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
+        <v>144.6387031680501</v>
+      </c>
+      <c r="M24" t="n">
         <v>304.2053859195205</v>
-      </c>
-      <c r="M24" t="n">
-        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
         <v>542.809531908403</v>
@@ -6090,28 +6092,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>796.1493024631586</v>
       </c>
       <c r="T24" t="n">
-        <v>852.7947480059265</v>
+        <v>796.1493024631586</v>
       </c>
       <c r="U24" t="n">
-        <v>852.7947480059265</v>
+        <v>796.1493024631586</v>
       </c>
       <c r="V24" t="n">
-        <v>852.7947480059265</v>
+        <v>796.1493024631586</v>
       </c>
       <c r="W24" t="n">
-        <v>609.3459713618265</v>
+        <v>796.1493024631586</v>
       </c>
       <c r="X24" t="n">
-        <v>401.4944711562937</v>
+        <v>796.1493024631586</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.7341723913397</v>
+        <v>796.1493024631586</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L25" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M25" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N25" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>720.6083788665362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6263,13 +6265,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>281.5846883638847</v>
+        <v>567.6182002269572</v>
       </c>
       <c r="C27" t="n">
-        <v>281.5846883638847</v>
+        <v>567.6182002269572</v>
       </c>
       <c r="D27" t="n">
-        <v>132.6502787026334</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E27" t="n">
-        <v>132.6502787026334</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F27" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G27" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6330,25 +6332,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>588.4532163200711</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>360.2295980564601</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>281.5846883638847</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="W27" t="n">
-        <v>281.5846883638847</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="X27" t="n">
-        <v>281.5846883638847</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="Y27" t="n">
-        <v>281.5846883638847</v>
+        <v>735.8335372470253</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K28" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L28" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M28" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N28" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y28" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C29" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6485,28 +6487,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>752.9257720901863</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>752.9257720901863</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U29" t="n">
-        <v>752.9257720901863</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V29" t="n">
-        <v>752.9257720901863</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W29" t="n">
-        <v>752.9257720901863</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X29" t="n">
-        <v>752.9257720901863</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="Y29" t="n">
-        <v>752.9257720901863</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="30">
@@ -6516,46 +6518,46 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O30" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P30" t="n">
         <v>894.6625969973069</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T30" t="n">
-        <v>906.5653369884105</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>678.3417187247995</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V30" t="n">
-        <v>678.3417187247995</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W30" t="n">
-        <v>434.8929420806995</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X30" t="n">
-        <v>227.0414418751666</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="31">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F32" t="n">
         <v>262.7299197543128</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T32" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X32" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>83.81530782185143</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="C33" t="n">
-        <v>83.81530782185143</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D33" t="n">
-        <v>83.81530782185143</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E33" t="n">
-        <v>83.81530782185143</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>83.81530782185143</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6786,10 +6788,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O33" t="n">
         <v>781.4136778972854</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T33" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U33" t="n">
-        <v>562.4161926976942</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V33" t="n">
-        <v>327.2640844659515</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W33" t="n">
-        <v>83.81530782185143</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X33" t="n">
-        <v>83.81530782185143</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y33" t="n">
-        <v>83.81530782185143</v>
+        <v>473.9875657500345</v>
       </c>
     </row>
     <row r="34">
@@ -6850,7 +6852,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
         <v>829.5248650203655</v>
@@ -6911,10 +6913,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
         <v>19.28114311021272</v>
@@ -6956,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U35" t="n">
-        <v>720.6083788665362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V35" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X35" t="n">
-        <v>233.7108255783361</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y35" t="n">
-        <v>233.7108255783361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="36">
@@ -7017,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P36" t="n">
         <v>964.0571555106362</v>
@@ -7038,22 +7040,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>487.2836868729568</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="U36" t="n">
-        <v>259.0600686093459</v>
+        <v>705.7335281915883</v>
       </c>
       <c r="V36" t="n">
-        <v>23.90796037760316</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W36" t="n">
-        <v>19.28114311021272</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X36" t="n">
         <v>19.28114311021272</v>
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
         <v>829.5248650203655</v>
@@ -7123,22 +7125,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="C38" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="D38" t="n">
-        <v>40.6788758079141</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="E38" t="n">
-        <v>40.6788758079141</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I38" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J38" t="n">
         <v>19.28114311021272</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T38" t="n">
-        <v>527.5764290961142</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U38" t="n">
-        <v>284.1276524520142</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V38" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="W38" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="X38" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
       <c r="Y38" t="n">
-        <v>284.1276524520142</v>
+        <v>241.7186438601369</v>
       </c>
     </row>
     <row r="39">
@@ -7227,10 +7229,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="C39" t="n">
-        <v>84.60703932821886</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D39" t="n">
         <v>19.28114311021272</v>
@@ -7254,49 +7256,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N39" t="n">
-        <v>781.4136778972854</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U39" t="n">
-        <v>259.0600686093459</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V39" t="n">
-        <v>259.0600686093459</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W39" t="n">
-        <v>259.0600686093459</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X39" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y39" t="n">
-        <v>259.0600686093459</v>
+        <v>49.38115216564972</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D41" t="n">
-        <v>431.628992076841</v>
+        <v>396.792197863116</v>
       </c>
       <c r="E41" t="n">
-        <v>431.628992076841</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F41" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7412,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N41" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7433,28 +7435,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R41" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="U41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="V41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="X41" t="n">
-        <v>639.2227743377304</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y41" t="n">
-        <v>431.628992076841</v>
+        <v>604.3859801240053</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>190.8944568361894</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I42" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P42" t="n">
         <v>752.6768192397923</v>
@@ -7521,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>614.4775954922324</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V42" t="n">
-        <v>406.8838132313431</v>
+        <v>639.976906990516</v>
       </c>
       <c r="W42" t="n">
-        <v>199.2900309704538</v>
+        <v>432.3831247296267</v>
       </c>
       <c r="X42" t="n">
-        <v>190.8944568361894</v>
+        <v>224.7893424687375</v>
       </c>
       <c r="Y42" t="n">
-        <v>190.8944568361894</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V43" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W43" t="n">
         <v>16.44142755506243</v>
@@ -7622,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="C44" t="n">
+        <v>453.0030327087026</v>
+      </c>
+      <c r="D44" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="E44" t="n">
+        <v>245.4092504478133</v>
+      </c>
+      <c r="F44" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="C44" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="D44" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="E44" t="n">
-        <v>224.0352098159517</v>
-      </c>
-      <c r="F44" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7667,31 +7669,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="T44" t="n">
-        <v>639.2227743377304</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="U44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>639.2227743377304</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>431.628992076841</v>
+        <v>453.0030327087026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C45" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D45" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E45" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F45" t="n">
-        <v>193.3561635226719</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G45" t="n">
-        <v>193.3561635226719</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H45" t="n">
-        <v>79.98702793025122</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I45" t="n">
         <v>17.19556020784815</v>
@@ -7728,49 +7730,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>548.724319600695</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R45" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>547.4845037566762</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>339.8907214957869</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>339.8907214957869</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W45" t="n">
-        <v>339.8907214957869</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="X45" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="Y45" t="n">
-        <v>339.8907214957869</v>
+        <v>17.19556020784815</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K46" t="n">
-        <v>687.5390872628509</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L46" t="n">
-        <v>714.8532122705639</v>
+        <v>43.75555256277541</v>
       </c>
       <c r="M46" t="n">
-        <v>754.041250462786</v>
+        <v>82.94359075499759</v>
       </c>
       <c r="N46" t="n">
-        <v>797.7321011182223</v>
+        <v>126.6344414104339</v>
       </c>
       <c r="O46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="P46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>822.0713777531216</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y46" t="n">
-        <v>687.5390872628509</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7984,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
-        <v>401.0105146732905</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8061,13 +8063,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7024424905649</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8216,7 +8218,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L5" t="n">
         <v>417.6612145504504</v>
@@ -8225,13 +8227,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N5" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O5" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8298,7 +8300,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
         <v>347.6518783602987</v>
@@ -8310,10 +8312,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>134.4691888741278</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,16 +8455,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
@@ -8532,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>336.8595565216137</v>
+        <v>279.489774794024</v>
       </c>
       <c r="O9" t="n">
-        <v>234.2160227667432</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>434.9309080348713</v>
+        <v>310.4448022570774</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,19 +8774,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N12" t="n">
-        <v>131.836493543131</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -8936,10 +8938,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>401.0105146732905</v>
       </c>
       <c r="O14" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9006,13 +9008,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9021,7 +9023,7 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9164,7 +9166,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9246,13 +9248,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>241.9453110519923</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9480,13 +9482,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N21" t="n">
         <v>372.3560009609923</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,22 +10193,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N30" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10434,13 +10436,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10674,13 +10676,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -10902,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10911,16 +10913,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2485028631349</v>
+        <v>301.2508595994748</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>360.3696370111358</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11139,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O42" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
         <v>142.1340339220183</v>
@@ -11388,13 +11390,13 @@
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>234.2160227667432</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22553,7 +22555,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>360.7700698467189</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -22589,19 +22591,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22613,7 +22615,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>355.0869392159659</v>
       </c>
     </row>
     <row r="3">
@@ -22629,7 +22631,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>18.44134906598205</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -22674,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>18.44134906598211</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>115.6226874585631</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22781,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>159.7550473327271</v>
+        <v>184.2527743897701</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>176.4125256339814</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22844,13 +22846,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>205.2178212748162</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="6">
@@ -22869,19 +22871,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>71.84464342485012</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,22 +22910,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>47.22970266962949</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23030,16 +23032,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -23084,10 +23086,10 @@
         <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>205.2178212748161</v>
       </c>
     </row>
     <row r="9">
@@ -23100,10 +23102,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>100.148786383304</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23145,13 +23147,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>46.48311134337177</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23255,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>201.7137242822431</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I11" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,16 +23339,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>75.61975943162581</v>
       </c>
       <c r="D12" t="n">
-        <v>95.27617357904231</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23388,7 +23390,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
         <v>225.9413820809748</v>
@@ -23403,7 +23405,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23504,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>29.45577218916847</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23537,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>306.591958244592</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23577,13 +23579,13 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>137.3435171632106</v>
@@ -23592,7 +23594,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23634,13 +23636,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>205.1452953058428</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.1648513390239543</v>
+        <v>130.0082298551044</v>
       </c>
     </row>
     <row r="16">
@@ -23671,10 +23673,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23692,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23741,7 +23743,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>185.9922493601736</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G17" t="n">
         <v>174.288448637476</v>
@@ -23753,7 +23755,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>10.13979328157633</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23776,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23808,31 +23810,31 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23868,16 +23870,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>21.54103161374061</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -23941,10 +23943,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U19" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23966,16 +23968,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>170.4484560200385</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>152.9875061275656</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F20" t="n">
         <v>165.8617568640524</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24051,7 +24053,7 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>120.4592573625854</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -24066,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>28.41129997589518</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24096,7 +24098,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24114,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24215,7 +24217,7 @@
         <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>405.0665496686752</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24224,7 +24226,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
         <v>11.94928935461252</v>
@@ -24257,16 +24259,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>105.6122307394782</v>
       </c>
       <c r="T24" t="n">
-        <v>90.01494526515901</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24347,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24418,13 +24420,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24446,19 +24448,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,19 +24521,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>20.28770743060083</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
@@ -24543,7 +24545,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24570,16 +24572,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>154.9421265537756</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.6450125965693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24655,7 +24657,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24680,22 +24682,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>362.0075757138109</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24725,28 +24727,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>305.9032316402336</v>
       </c>
     </row>
     <row r="30">
@@ -24780,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>143.2478283578182</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>71.10541651401849</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="31">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24926,7 +24928,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>354.4504772539638</v>
       </c>
       <c r="G32" t="n">
         <v>415.302737515135</v>
@@ -24959,31 +24961,31 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>146.6038018839531</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24999,19 +25001,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
-        <v>48.34662117197414</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I33" t="n">
         <v>89.39663285141508</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>192.5195358656113</v>
       </c>
     </row>
     <row r="34">
@@ -25090,10 +25092,10 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25154,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25196,7 +25198,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>149.8691179411497</v>
@@ -25208,7 +25210,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>86.73796959247585</v>
@@ -25217,10 +25219,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>183.9432522271564</v>
       </c>
     </row>
     <row r="36">
@@ -25278,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>170.3657197299391</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25293,10 +25295,10 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>247.1144340662031</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -25330,7 +25332,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I37" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
         <v>93.35918011667277</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25394,13 +25396,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>161.7172443298368</v>
       </c>
       <c r="F38" t="n">
-        <v>397.6415797255996</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>415.302737515135</v>
@@ -25412,7 +25414,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,7 +25450,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25470,10 +25472,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>142.9094900234331</v>
       </c>
       <c r="D39" t="n">
-        <v>82.77242830881268</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25515,25 +25517,25 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>13.24699506120118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25615,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="41">
@@ -25628,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F41" t="n">
-        <v>201.358201303431</v>
+        <v>235.8466275750188</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25673,10 +25675,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>187.8597693607025</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T41" t="n">
         <v>223.0958495641314</v>
@@ -25694,7 +25696,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25707,7 +25709,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>52.52706109444571</v>
       </c>
       <c r="W42" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X42" t="n">
-        <v>197.4613668105558</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>201.358201303431</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25907,19 +25909,19 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
-        <v>42.075732182894</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25953,16 +25955,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>27.23307980623604</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25989,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
@@ -26001,13 +26003,13 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>25.49945914849792</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -26032,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26083,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449711.3075636477</v>
+        <v>449711.3075636478</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449711.3075636479</v>
+        <v>449711.3075636478</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449711.3075636479</v>
+        <v>449711.3075636478</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449711.3075636477</v>
+        <v>449711.3075636478</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.006604441</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449711.3075636477</v>
+        <v>449711.3075636479</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449711.307563648</v>
+        <v>449711.3075636478</v>
       </c>
     </row>
   </sheetData>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12710.21422385734</v>
+        <v>-12710.21422385737</v>
       </c>
       <c r="C6" t="n">
-        <v>56163.54235783247</v>
+        <v>56163.54235783249</v>
       </c>
       <c r="D6" t="n">
-        <v>56163.5423578325</v>
+        <v>56163.54235783248</v>
       </c>
       <c r="E6" t="n">
-        <v>89791.14235783249</v>
+        <v>89791.14235783248</v>
       </c>
       <c r="F6" t="n">
-        <v>89791.14235783246</v>
+        <v>89791.1423578325</v>
       </c>
       <c r="G6" t="n">
-        <v>83323.10301958967</v>
+        <v>83323.10301958969</v>
       </c>
       <c r="H6" t="n">
         <v>93052.14599375677</v>
       </c>
       <c r="I6" t="n">
-        <v>93052.1459937568</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="J6" t="n">
-        <v>39279.63510354736</v>
+        <v>39279.63510354732</v>
       </c>
       <c r="K6" t="n">
-        <v>93052.14599375676</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="L6" t="n">
         <v>93052.14599375679</v>
       </c>
       <c r="M6" t="n">
-        <v>93052.14599375679</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="N6" t="n">
-        <v>93052.14599375676</v>
+        <v>93052.14599375677</v>
       </c>
       <c r="O6" t="n">
-        <v>89791.14235783248</v>
+        <v>89791.14235783246</v>
       </c>
       <c r="P6" t="n">
-        <v>89791.14235783248</v>
+        <v>89791.14235783249</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34704,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34781,13 +34783,13 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N3" t="n">
         <v>148.1480627106907</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>181.8947995804632</v>
@@ -34945,13 +34947,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N5" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O5" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35018,7 +35020,7 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
         <v>205.5178444382804</v>
@@ -35030,10 +35032,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,16 +35175,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
@@ -35252,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="O9" t="n">
-        <v>91.61977832229879</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N11" t="n">
         <v>81.03173866048648</v>
-      </c>
-      <c r="N11" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,19 +35494,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="N12" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="M12" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0.4947814597977008</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
         <v>70.09551364982758</v>
@@ -35656,10 +35658,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="O14" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35726,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35741,7 +35743,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
         <v>70.09551364982758</v>
@@ -35890,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35966,13 +35968,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>99.81127712997396</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -36200,13 +36202,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N21" t="n">
         <v>241.0142888776591</v>
@@ -36218,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>161.1784674257276</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36674,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>70.09551364982758</v>
@@ -37154,13 +37156,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37394,13 +37396,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37622,7 +37624,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
@@ -37631,16 +37633,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798016</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37780,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>130.2714255894491</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37859,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O42" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38096,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -38108,13 +38110,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_15.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_2_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>572601.0856978218</v>
+        <v>468368.5874343787</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5337994.008849935</v>
+        <v>5337994.008849933</v>
       </c>
     </row>
     <row r="11">
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="Y2" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>129.0037164986567</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>91.54936420090624</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,10 +797,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,16 +858,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
-        <v>181.0201173812374</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -958,10 +958,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>205.5178444382804</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>52.92813148301364</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>80.86228322859418</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
+        <v>0</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V6" t="n">
-        <v>0</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0</v>
-      </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1135,10 +1135,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,19 +1189,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>19.20171008547518</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1214,10 +1214,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>47.29627918133474</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>48.32160706581262</v>
       </c>
       <c r="W9" t="n">
         <v>205.5178444382804</v>
@@ -1317,7 +1317,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1381,52 +1381,52 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>21.16030022554292</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="G11" t="n">
+      <c r="T11" t="n">
+        <v>0</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="H11" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1451,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>97.08873955668993</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1502,16 +1502,16 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1569,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1618,55 +1618,55 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="I14" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1700,16 +1700,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>39.8366723382224</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1745,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>75.67446592219994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1806,13 +1806,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>22.03399177268427</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1852,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="F17" t="n">
         <v>241.0142888776591</v>
@@ -1861,13 +1861,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.809496073036188</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1888,16 +1888,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>145.4467082856156</v>
+        <v>161.6951706354068</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1979,16 +1979,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2055,16 +2055,16 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2083,16 +2083,16 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>220.2131257424249</v>
       </c>
       <c r="E20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>241.0142888776591</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,13 +2134,13 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,16 +2159,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>60.9853328755199</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2210,25 +2210,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>29.88929839105575</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,61 +2326,61 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
+        <v>11.19305615617957</v>
+      </c>
+      <c r="V23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2396,22 +2396,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2444,28 +2444,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>66.07094036435966</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>49.3111039422953</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2557,14 +2557,14 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,31 +2633,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>127.1573581340379</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>49.59973045914185</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,22 +2681,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
@@ -2800,7 +2800,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2836,13 +2836,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
         <v>223.0958495641314</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
+        <v>0</v>
+      </c>
+      <c r="X29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W29" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
       <c r="Y29" t="n">
-        <v>80.33470701582003</v>
+        <v>11.19305615617957</v>
       </c>
     </row>
     <row r="30">
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2894,7 +2894,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9413820809748</v>
+        <v>188.647043108376</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2936,7 +2936,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>134.667568689459</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3012,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3040,19 +3040,19 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>52.42556848774763</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>190.3453970742848</v>
       </c>
       <c r="W32" t="n">
         <v>241.0142888776591</v>
@@ -3113,13 +3113,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -3155,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>56.91690033700343</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>13.16315991169311</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3198,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3268,28 +3268,28 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3392,13 +3392,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.79900896488251</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>29.79900896488251</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>220.2131257424249</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,22 +3547,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -3584,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3632,13 +3632,13 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>88.91888512441757</v>
       </c>
       <c r="V39" t="n">
         <v>232.8005871494253</v>
@@ -3647,7 +3647,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,22 +3742,22 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="F41" t="n">
-        <v>171.0294181666926</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V42" t="n">
-        <v>180.2735260549796</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W42" t="n">
-        <v>205.5178444382804</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="X42" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3982,16 +3982,16 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>21.16030022554292</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,22 +4027,22 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4079,7 +4079,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
+        <v>181.0201173812374</v>
+      </c>
+      <c r="X45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="W45" t="n">
+      <c r="Y45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="X45" t="n">
-        <v>180.2735260549796</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4146,46 +4146,46 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
+      <c r="R46" t="n">
+        <v>0</v>
+      </c>
+      <c r="S46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
-      </c>
-      <c r="R46" t="n">
-        <v>0</v>
-      </c>
-      <c r="S46" t="n">
-        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4333,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>85.87524403801982</v>
       </c>
       <c r="L2" t="n">
-        <v>176.2910403306274</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4354,25 +4354,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R2" t="n">
-        <v>670.6884303378189</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S2" t="n">
-        <v>463.0946480769296</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T2" t="n">
-        <v>463.0946480769296</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U2" t="n">
-        <v>255.5008658160403</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V2" t="n">
-        <v>255.5008658160403</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W2" t="n">
-        <v>255.5008658160403</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X2" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
         <v>16.44142755506243</v>
@@ -4385,19 +4385,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>480.4386961837225</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C3" t="n">
-        <v>305.9856669025954</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D3" t="n">
-        <v>175.6788825605179</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E3" t="n">
-        <v>16.44142755506243</v>
+        <v>247.6463582258876</v>
       </c>
       <c r="F3" t="n">
-        <v>16.44142755506243</v>
+        <v>155.1722529724469</v>
       </c>
       <c r="G3" t="n">
         <v>16.44142755506243</v>
@@ -4421,13 +4421,13 @@
         <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
@@ -4436,25 +4436,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U3" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V3" t="n">
-        <v>648.6540332037905</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W3" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X3" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y3" t="n">
-        <v>648.6540332037905</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4506,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R4" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>199.2900309704538</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="C5" t="n">
         <v>16.44142755506243</v>
@@ -4576,7 +4576,7 @@
         <v>196.517279139721</v>
       </c>
       <c r="M5" t="n">
-        <v>399.9799451336186</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
         <v>583.2163723184226</v>
@@ -4588,31 +4588,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W5" t="n">
-        <v>614.4775954922324</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="6">
@@ -4622,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
@@ -4655,7 +4655,7 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>548.724319600695</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N6" t="n">
         <v>548.724319600695</v>
@@ -4664,34 +4664,34 @@
         <v>752.1869855945927</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>768.6086186793705</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>595.1912741300393</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T6" t="n">
-        <v>393.0046794888054</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U6" t="n">
-        <v>185.4108972279162</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V6" t="n">
-        <v>185.4108972279162</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W6" t="n">
-        <v>185.4108972279162</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4108972279162</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4743,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>443.6989813239244</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>236.1051990630351</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="H8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="I8" t="n">
-        <v>16.44142755506243</v>
+        <v>28.51141680214578</v>
       </c>
       <c r="J8" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L8" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O8" t="n">
         <v>732.4113224610707</v>
@@ -4828,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="W8" t="n">
-        <v>614.4775954922324</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="X8" t="n">
-        <v>406.8838132313431</v>
+        <v>651.2927635848137</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>651.2927635848137</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>238.668476211275</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
-        <v>64.21544693014803</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D9" t="n">
         <v>16.44142755506243</v>
@@ -4886,22 +4886,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M9" t="n">
-        <v>423.3667595428576</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="N9" t="n">
-        <v>570.0333416264414</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P9" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q9" t="n">
         <v>822.0713777531216</v>
@@ -4910,25 +4910,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U9" t="n">
-        <v>822.0713777531216</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="V9" t="n">
-        <v>822.0713777531216</v>
+        <v>599.8443290969091</v>
       </c>
       <c r="W9" t="n">
-        <v>614.4775954922324</v>
+        <v>392.2505468360198</v>
       </c>
       <c r="X9" t="n">
-        <v>406.8838132313431</v>
+        <v>184.6567645751305</v>
       </c>
       <c r="Y9" t="n">
-        <v>406.8838132313431</v>
+        <v>184.6567645751305</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4980,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V10" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5044,13 +5044,13 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5062,31 +5062,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="12">
@@ -5096,49 +5096,49 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C12" t="n">
-        <v>724.0019438574752</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D12" t="n">
-        <v>575.067534196224</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E12" t="n">
-        <v>415.8300791907684</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F12" t="n">
-        <v>269.2955212176533</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G12" t="n">
-        <v>130.5646958002688</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K12" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N12" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O12" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
@@ -5150,22 +5150,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5217,34 +5217,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P13" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q13" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W13" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F14" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G14" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
         <v>16.44142755506243</v>
@@ -5299,31 +5299,31 @@
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>577.417186266185</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="C15" t="n">
-        <v>402.964156985058</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="D15" t="n">
-        <v>254.0297473238067</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E15" t="n">
-        <v>254.0297473238067</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F15" t="n">
-        <v>107.4951893506917</v>
+        <v>260.349255258228</v>
       </c>
       <c r="G15" t="n">
-        <v>107.4951893506917</v>
+        <v>220.1101922903266</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>106.7410566979059</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,19 +5363,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>163.1080096386462</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N15" t="n">
-        <v>366.5706756325438</v>
+        <v>618.608711759224</v>
       </c>
       <c r="O15" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P15" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5393,16 +5393,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y15" t="n">
-        <v>745.632523286253</v>
+        <v>406.8838132313431</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="C16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="D16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="E16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="F16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="G16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J16" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K16" t="n">
         <v>16.44142755506243</v>
@@ -5454,34 +5454,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P16" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q16" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.93586374282289</v>
+        <v>150.9737180453332</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="C17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="D17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="E17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F17" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>21.10891692136039</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
         <v>19.28114311021272</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>964.0571555106362</v>
+        <v>183.363730950278</v>
       </c>
       <c r="C18" t="n">
-        <v>817.1412885554689</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D18" t="n">
-        <v>668.2068788942177</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E18" t="n">
-        <v>508.9694238887622</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F18" t="n">
-        <v>362.4348659156472</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I18" t="n">
         <v>20.03527576299844</v>
@@ -5597,49 +5597,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>234.810827406191</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T18" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>391.2152311558108</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>183.363730950278</v>
       </c>
       <c r="Y18" t="n">
-        <v>964.0571555106362</v>
+        <v>183.363730950278</v>
       </c>
     </row>
     <row r="19">
@@ -5703,13 +5703,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
         <v>262.7299197543128</v>
@@ -5773,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W20" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X20" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y20" t="n">
-        <v>964.0571555106362</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="21">
@@ -5807,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>414.5729737357042</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C21" t="n">
-        <v>240.1199444545772</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D21" t="n">
-        <v>240.1199444545772</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>80.88248944912172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>80.88248944912172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
-        <v>80.88248944912172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>80.88248944912172</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
         <v>19.28114311021272</v>
@@ -5837,19 +5837,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5858,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>790.6398109613051</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>790.6398109613051</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X21" t="n">
-        <v>582.7883107557723</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y21" t="n">
-        <v>582.7883107557723</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="22">
@@ -5946,7 +5946,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H23" t="n">
         <v>19.28114311021272</v>
@@ -6010,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T23" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>627.9339654430905</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C24" t="n">
-        <v>453.4809361619635</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D24" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E24" t="n">
-        <v>304.5465265007123</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6074,46 +6074,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>796.1493024631586</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>796.1493024631586</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>796.1493024631586</v>
+        <v>914.2479596093278</v>
       </c>
       <c r="V24" t="n">
-        <v>796.1493024631586</v>
+        <v>679.0958513775852</v>
       </c>
       <c r="W24" t="n">
-        <v>796.1493024631586</v>
+        <v>435.6470747334852</v>
       </c>
       <c r="X24" t="n">
-        <v>796.1493024631586</v>
+        <v>227.7955745279523</v>
       </c>
       <c r="Y24" t="n">
-        <v>796.1493024631586</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="25">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6247,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W26" t="n">
-        <v>749.627473042513</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X26" t="n">
-        <v>506.1786963984129</v>
+        <v>467.067986854209</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>467.067986854209</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>567.6182002269572</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="C27" t="n">
-        <v>567.6182002269572</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="D27" t="n">
-        <v>439.1764243339896</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="E27" t="n">
-        <v>279.9389693285341</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="F27" t="n">
-        <v>133.4044113554191</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="G27" t="n">
-        <v>133.4044113554191</v>
+        <v>69.38188094772974</v>
       </c>
       <c r="H27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>257.8852890990952</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>496.4894350879777</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O27" t="n">
-        <v>735.0935810768601</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P27" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U27" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V27" t="n">
-        <v>735.8335372470253</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W27" t="n">
-        <v>735.8335372470253</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="X27" t="n">
-        <v>735.8335372470253</v>
+        <v>243.8349102288568</v>
       </c>
       <c r="Y27" t="n">
-        <v>735.8335372470253</v>
+        <v>243.8349102288568</v>
       </c>
     </row>
     <row r="28">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T29" t="n">
-        <v>587.3248651012614</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U29" t="n">
-        <v>587.3248651012614</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V29" t="n">
-        <v>343.8760884571613</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W29" t="n">
-        <v>100.4273118130612</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X29" t="n">
-        <v>100.4273118130612</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="30">
@@ -6518,40 +6518,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>234.810827406191</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>473.4149733950735</v>
@@ -6575,19 +6575,19 @@
         <v>862.8876260635219</v>
       </c>
       <c r="U30" t="n">
-        <v>634.6640077999109</v>
+        <v>672.3350572671825</v>
       </c>
       <c r="V30" t="n">
-        <v>399.5118995681682</v>
+        <v>437.1829490354398</v>
       </c>
       <c r="W30" t="n">
-        <v>156.0631229240681</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="X30" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="Y30" t="n">
-        <v>20.03527576299844</v>
+        <v>193.7341723913397</v>
       </c>
     </row>
     <row r="31">
@@ -6639,25 +6639,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W31" t="n">
         <v>19.28114311021272</v>
@@ -6676,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G32" t="n">
-        <v>262.7299197543128</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>559.1338160830064</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V32" t="n">
-        <v>559.1338160830064</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="W32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y32" t="n">
-        <v>315.6850394389064</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="33">
@@ -6755,16 +6755,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
         <v>19.28114311021272</v>
@@ -6782,19 +6782,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N33" t="n">
-        <v>781.4136778972854</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P33" t="n">
         <v>964.0571555106362</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>689.4702815141908</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="T33" t="n">
-        <v>487.2836868729568</v>
+        <v>906.5653369884105</v>
       </c>
       <c r="U33" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="V33" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W33" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X33" t="n">
-        <v>487.2836868729568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="35">
@@ -6913,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="C35" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>710.516763498309</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>710.516763498309</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="X35" t="n">
-        <v>710.516763498309</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="36">
@@ -7025,25 +7025,25 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>726.4525409563269</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>933.9571464551993</v>
       </c>
       <c r="T36" t="n">
         <v>933.9571464551993</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C38" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D38" t="n">
-        <v>241.7186438601369</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T38" t="n">
-        <v>728.6161971483371</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U38" t="n">
-        <v>485.167420504237</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V38" t="n">
-        <v>241.7186438601369</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W38" t="n">
-        <v>241.7186438601369</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X38" t="n">
-        <v>241.7186438601369</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="Y38" t="n">
-        <v>241.7186438601369</v>
+        <v>527.5764290961142</v>
       </c>
     </row>
     <row r="39">
@@ -7229,49 +7229,49 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M39" t="n">
-        <v>487.8483949674443</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N39" t="n">
-        <v>656.0584510084244</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O39" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7280,25 +7280,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>498.6361606388412</v>
       </c>
       <c r="V39" t="n">
-        <v>500.6814290152826</v>
+        <v>263.4840524070985</v>
       </c>
       <c r="W39" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X39" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y39" t="n">
-        <v>49.38115216564972</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="40">
@@ -7371,10 +7371,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
         <v>19.28114311021272</v>
@@ -7387,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C41" t="n">
         <v>396.792197863116</v>
@@ -7396,13 +7396,13 @@
         <v>396.792197863116</v>
       </c>
       <c r="E41" t="n">
-        <v>189.1984156022267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="F41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G41" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="H41" t="n">
         <v>16.44142755506243</v>
@@ -7417,7 +7417,7 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>299.5322850506434</v>
+        <v>176.2910403306274</v>
       </c>
       <c r="M41" t="n">
         <v>379.753706324525</v>
@@ -7438,25 +7438,25 @@
         <v>811.9797623848946</v>
       </c>
       <c r="S41" t="n">
-        <v>604.3859801240053</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T41" t="n">
         <v>604.3859801240053</v>
       </c>
       <c r="U41" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="V41" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="W41" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X41" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y41" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="42">
@@ -7466,49 +7466,49 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L42" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M42" t="n">
-        <v>548.724319600695</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N42" t="n">
-        <v>752.1869855945927</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>752.6768192397923</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7523,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="V42" t="n">
-        <v>639.976906990516</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="W42" t="n">
-        <v>432.3831247296267</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>224.7893424687375</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C44" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E44" t="n">
-        <v>245.4092504478133</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F44" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7651,10 +7651,10 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K44" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L44" t="n">
-        <v>176.2910403306274</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
         <v>379.753706324525</v>
@@ -7675,25 +7675,25 @@
         <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>660.5968149695918</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>660.5968149695918</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y44" t="n">
-        <v>453.0030327087026</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="45">
@@ -7703,28 +7703,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
@@ -7733,19 +7733,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="M45" t="n">
-        <v>345.2616536067974</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N45" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7763,16 +7763,16 @@
         <v>614.4775954922324</v>
       </c>
       <c r="V45" t="n">
-        <v>406.8838132313431</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>199.2900309704538</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X45" t="n">
-        <v>17.19556020784815</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F46" t="n">
         <v>16.44142755506243</v>
@@ -7833,25 +7833,25 @@
         <v>150.9737180453332</v>
       </c>
       <c r="S46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
   </sheetData>
@@ -7981,10 +7981,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>290.2250192095839</v>
       </c>
       <c r="L2" t="n">
-        <v>293.1751087726566</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>435.8640776655532</v>
@@ -7996,7 +7996,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8069,7 +8069,7 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
-        <v>279.489774794024</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
         <v>348.1140888827248</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8224,10 +8224,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>415.4335334139435</v>
       </c>
       <c r="N5" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
@@ -8303,19 +8303,19 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P6" t="n">
-        <v>134.4691888741278</v>
+        <v>204.5647025239554</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,7 +8455,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
@@ -8464,10 +8464,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8534,25 +8534,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>279.489774794024</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,16 +8692,16 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>397.2306702988408</v>
       </c>
       <c r="M11" t="n">
         <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8771,16 +8771,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N12" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O12" t="n">
         <v>348.1140888827248</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9011,22 +9011,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>201.9320071929585</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,16 +9245,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>233.2169876979182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>372.3560009609923</v>
+        <v>186.8580120236956</v>
       </c>
       <c r="O18" t="n">
         <v>383.6105333221035</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9485,13 +9485,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>303.312501347746</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q27" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,16 +10193,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>359.8407857361378</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10430,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10439,13 +10439,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>301.2485028631349</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10673,19 +10673,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>368.5691090902119</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>301.2508595994748</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,10 +11065,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>293.1751087726566</v>
       </c>
       <c r="M41" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
         <v>434.9309080348713</v>
@@ -11141,7 +11141,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>344.0722242181546</v>
@@ -11150,16 +11150,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O42" t="n">
-        <v>143.091025904242</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11299,13 +11299,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>397.2306702988408</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11381,22 +11381,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>160.0786444523452</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22594,19 +22594,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>42.075732182894</v>
       </c>
       <c r="U2" t="n">
         <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22615,7 +22615,7 @@
         <v>164.2132562401886</v>
       </c>
       <c r="Y2" t="n">
-        <v>355.0869392159659</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22625,22 +22625,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>18.44134906598205</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>53.51984819247764</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -22676,7 +22676,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22685,10 +22685,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -22731,7 +22731,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22746,16 +22746,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22786,7 +22786,7 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -22828,7 +22828,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -22846,10 +22846,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y5" t="n">
         <v>180.7200942177732</v>
@@ -22862,7 +22862,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>47.22970266962949</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>90.82088787524364</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22968,7 +22968,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -22998,7 +22998,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23023,10 +23023,10 @@
         <v>177.2159972252002</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23068,7 +23068,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -23077,19 +23077,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>232.1439428223613</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.2178212748161</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23102,10 +23102,10 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>100.148786383304</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
         <v>157.6450804554009</v>
@@ -23150,7 +23150,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23159,7 +23159,7 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>184.4789800836126</v>
       </c>
       <c r="W9" t="n">
         <v>46.1771387226392</v>
@@ -23205,7 +23205,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23269,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>318.3145018902242</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,19 +23302,19 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -23339,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>75.61975943162581</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23390,16 +23390,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>46.42735402472914</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23442,7 +23442,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23457,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23481,7 +23481,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23506,16 +23506,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
         <v>11.94928935461252</v>
@@ -23539,22 +23539,22 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23588,16 +23588,16 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>97.50684482498824</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23633,16 +23633,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>130.0082298551044</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23667,7 +23667,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>167.9909793584588</v>
+        <v>34.80401177309076</v>
       </c>
       <c r="H16" t="n">
         <v>162.2271725074396</v>
@@ -23679,7 +23679,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23694,13 +23694,13 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23740,7 +23740,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>311.5863622709866</v>
       </c>
       <c r="F17" t="n">
         <v>165.8617568640524</v>
@@ -23749,13 +23749,13 @@
         <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>10.13979328157633</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,16 +23776,16 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23813,25 +23813,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>27.26179070270013</v>
+        <v>11.01332835290896</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>171.6831711038378</v>
@@ -23867,16 +23867,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>205.6826957773044</v>
@@ -23943,7 +23943,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
@@ -23952,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23971,16 +23971,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>152.9875061275656</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>134.469915878258</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>174.288448637476</v>
@@ -24013,7 +24013,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
         <v>149.8691179411497</v>
@@ -24022,13 +24022,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24047,16 +24047,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
@@ -24068,7 +24068,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>28.41129997589518</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -24098,25 +24098,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24186,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,16 +24214,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
@@ -24250,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W23" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24284,22 +24284,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24332,28 +24332,28 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>105.6122307394782</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>176.6302781386795</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24445,13 +24445,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>162.9782053421103</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24487,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>136.955583073971</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X26" t="n">
         <v>128.71681180081</v>
       </c>
       <c r="Y26" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24521,31 +24521,31 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>20.28770743060083</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>62.63571377735462</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,22 +24569,22 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
@@ -24688,7 +24688,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24724,13 +24724,13 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y29" t="n">
-        <v>305.9032316402336</v>
+        <v>375.044882499874</v>
       </c>
     </row>
     <row r="30">
@@ -24761,7 +24761,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>147.4450655646388</v>
@@ -24782,7 +24782,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24815,7 +24815,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>37.29433897259881</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>71.10541651401849</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24879,13 +24879,13 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R31" t="n">
-        <v>132.9899077786023</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S31" t="n">
         <v>224.0165980369723</v>
@@ -24900,7 +24900,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -24928,19 +24928,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>354.4504772539638</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
         <v>209.0200695862453</v>
@@ -24976,7 +24976,7 @@
         <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>137.4068613958501</v>
       </c>
       <c r="W32" t="n">
         <v>108.226679839754</v>
@@ -25001,13 +25001,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
         <v>137.3435171632106</v>
@@ -25043,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>114.7662707668344</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>192.5195358656113</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25095,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25156,10 +25156,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -25171,13 +25171,13 @@
         <v>415.302737515135</v>
       </c>
       <c r="H35" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>258.8520309793366</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>183.9432522271564</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>70.35882518776062</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>170.3657197299391</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>34.05985351325981</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>161.7172443298368</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,22 +25435,22 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -25472,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>142.9094900234331</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -25493,7 +25493,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25520,13 +25520,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>137.0224969565572</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -25535,7 +25535,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>85.39768576672677</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,22 +25630,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>176.4125256339814</v>
+        <v>210.9009519055691</v>
       </c>
       <c r="F41" t="n">
-        <v>235.8466275750188</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>133.9569576774867</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25678,13 +25678,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S41" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U41" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25730,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V42" t="n">
-        <v>52.52706109444571</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968216</v>
       </c>
       <c r="X42" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25870,16 +25870,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>385.7157455161685</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25915,22 +25915,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T44" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U44" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>348.5708004529261</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -25967,7 +25967,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26003,16 +26003,16 @@
         <v>20.42353764269441</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>46.1771387226392</v>
+        <v>70.67486577968219</v>
       </c>
       <c r="X45" t="n">
-        <v>25.49945914849792</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="46">
@@ -26034,7 +26034,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>167.9909793584588</v>
@@ -26073,7 +26073,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S46" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160426</v>
       </c>
       <c r="T46" t="n">
         <v>227.9455894282815</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449711.3075636478</v>
+        <v>449711.3075636477</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449711.3075636478</v>
+        <v>449711.3075636479</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>449711.3075636478</v>
+        <v>449711.3075636479</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>449711.3075636478</v>
+        <v>449711.3075636477</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>473677.0066044413</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473677.0066044412</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044413</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>473677.006604441</v>
+        <v>473677.0066044412</v>
       </c>
     </row>
     <row r="15">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12710.21422385737</v>
+        <v>-25348.37637871788</v>
       </c>
       <c r="C6" t="n">
-        <v>56163.54235783249</v>
+        <v>43525.380202972</v>
       </c>
       <c r="D6" t="n">
-        <v>56163.54235783248</v>
+        <v>43525.380202972</v>
       </c>
       <c r="E6" t="n">
-        <v>89791.14235783248</v>
+        <v>77152.98020297199</v>
       </c>
       <c r="F6" t="n">
-        <v>89791.1423578325</v>
+        <v>77152.980202972</v>
       </c>
       <c r="G6" t="n">
-        <v>83323.10301958969</v>
+        <v>71105.09239954922</v>
       </c>
       <c r="H6" t="n">
-        <v>93052.14599375677</v>
+        <v>80834.13537371633</v>
       </c>
       <c r="I6" t="n">
-        <v>93052.14599375677</v>
+        <v>80834.13537371632</v>
       </c>
       <c r="J6" t="n">
-        <v>39279.63510354732</v>
+        <v>27061.62448350689</v>
       </c>
       <c r="K6" t="n">
-        <v>93052.14599375677</v>
+        <v>80834.13537371632</v>
       </c>
       <c r="L6" t="n">
-        <v>93052.14599375679</v>
+        <v>80834.13537371632</v>
       </c>
       <c r="M6" t="n">
-        <v>93052.14599375677</v>
+        <v>80834.1353737163</v>
       </c>
       <c r="N6" t="n">
-        <v>93052.14599375677</v>
+        <v>80834.13537371633</v>
       </c>
       <c r="O6" t="n">
-        <v>89791.14235783246</v>
+        <v>77152.98020297199</v>
       </c>
       <c r="P6" t="n">
-        <v>89791.14235783249</v>
+        <v>77152.98020297199</v>
       </c>
     </row>
   </sheetData>
@@ -34701,10 +34701,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>70.13516816460341</v>
       </c>
       <c r="L2" t="n">
-        <v>57.40869380266933</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
         <v>205.5178444382804</v>
@@ -34716,7 +34716,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34789,7 +34789,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,10 +34944,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
+        <v>185.0873001866707</v>
+      </c>
+      <c r="N5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N5" t="n">
-        <v>185.0873001866707</v>
       </c>
       <c r="O5" t="n">
         <v>150.7019698410586</v>
@@ -35023,19 +35023,19 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P6" t="n">
-        <v>0.494781459797586</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
@@ -35184,10 +35184,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O8" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P8" t="n">
         <v>90.5657124162131</v>
@@ -35254,25 +35254,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>148.1480627106907</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>181.8947995804632</v>
+        <v>161.4642553288535</v>
       </c>
       <c r="M11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35491,16 +35491,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N12" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O12" t="n">
         <v>205.5178444382804</v>
@@ -35509,7 +35509,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35731,22 +35731,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>70.5902951096252</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35892,7 +35892,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
         <v>207.9338608153932</v>
@@ -35965,16 +35965,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>241.0142888776591</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="O18" t="n">
         <v>241.0142888776591</v>
@@ -35983,7 +35983,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36205,13 +36205,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
@@ -36220,7 +36220,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P24" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="Q27" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,16 +36913,16 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>217.7067518141195</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37150,7 +37150,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>232.285965523585</v>
@@ -37159,13 +37159,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>169.9067907798016</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37393,19 +37393,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
+        <v>226.4350751681936</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N36" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="O36" t="n">
-        <v>240.0046611659691</v>
-      </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N39" t="n">
-        <v>169.9091475161415</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37785,10 +37785,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>181.8947995804632</v>
+        <v>57.40869380266933</v>
       </c>
       <c r="M41" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
         <v>205.5178444382804</v>
@@ -37861,7 +37861,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>205.5178444382804</v>
@@ -37870,16 +37870,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N42" t="n">
+        <v>12.72573192223801</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="O42" t="n">
-        <v>0.494781459797586</v>
-      </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38019,13 +38019,13 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>161.4642553288535</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38101,22 +38101,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="M45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
       <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="O45" t="n">
-        <v>91.61977832229879</v>
       </c>
       <c r="P45" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
